--- a/examples/sources/data/unsolved/to_schedule/2019-01-21.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-01-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="85">
   <si>
     <t>Id</t>
   </si>
@@ -37,6 +37,27 @@
     <t>Fiscal</t>
   </si>
   <si>
+    <t>Querellante</t>
+  </si>
+  <si>
+    <t>Asesor</t>
+  </si>
+  <si>
+    <t>Riesgosa</t>
+  </si>
+  <si>
+    <t>Detenido</t>
+  </si>
+  <si>
+    <t>A la Tarde</t>
+  </si>
+  <si>
+    <t>Boulogne</t>
+  </si>
+  <si>
+    <t>Alma Fuerte</t>
+  </si>
+  <si>
     <t>Fecha de Pedido</t>
   </si>
   <si>
@@ -133,6 +154,9 @@
     <t xml:space="preserve">  Defensor Particular - Mercedes Rios Villegas</t>
   </si>
   <si>
+    <t>Querellante particular</t>
+  </si>
+  <si>
     <t xml:space="preserve">  Defensor Particular - CARREÑO SERGIO</t>
   </si>
   <si>
@@ -142,6 +166,9 @@
     <t xml:space="preserve">  Defensor Particular - Leonardo Medaura</t>
   </si>
   <si>
+    <t xml:space="preserve"> S/defensor</t>
+  </si>
+  <si>
     <t>Allisardi Federico (1ra. 4ta. circ.)</t>
   </si>
   <si>
@@ -175,6 +202,9 @@
     <t xml:space="preserve">  Defensor Particular - Dr. Marcelo Canale</t>
   </si>
   <si>
+    <t xml:space="preserve">  Defensor Particular - Dra. Hebe Bosdari</t>
+  </si>
+  <si>
     <t>Morales Bancalari  Ximena (1ra)</t>
   </si>
   <si>
@@ -193,6 +223,9 @@
     <t>Bardaro María Eugenia (1° Def. Pen. Men.)</t>
   </si>
   <si>
+    <t xml:space="preserve">  Defensor Particular - Dr. Gonzalo Evangelista</t>
+  </si>
+  <si>
     <t>Gonzalez Fernanda (11ra def.)</t>
   </si>
   <si>
@@ -205,9 +238,6 @@
     <t>Moreno Burgos Nadya (2da. def. 4ta. circ.)</t>
   </si>
   <si>
-    <t>Querellante particular</t>
-  </si>
-  <si>
     <t>Calabró Florencia (codef. 22da.)</t>
   </si>
   <si>
@@ -227,6 +257,9 @@
   </si>
   <si>
     <t xml:space="preserve">  Defensor Particular - DRA SOLETI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Defensor Particular - Dr. Facundo Lucero</t>
   </si>
   <si>
     <t>09:00</t>
@@ -597,13 +630,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:R79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -637,13 +670,34 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>100849</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>822</v>
@@ -655,21 +709,36 @@
         <v>399</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G2">
         <v>703</v>
       </c>
-      <c r="H2" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>100850</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>823</v>
@@ -681,21 +750,36 @@
         <v>412</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G3">
         <v>1072</v>
       </c>
-      <c r="H3" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>100851</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>823</v>
@@ -707,21 +791,36 @@
         <v>323</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G4">
         <v>516</v>
       </c>
-      <c r="H4" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>100852</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>821</v>
@@ -733,21 +832,36 @@
         <v>460</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G5">
         <v>1088</v>
       </c>
-      <c r="H5" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>100853</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>820</v>
@@ -759,21 +873,36 @@
         <v>323</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>377</v>
       </c>
-      <c r="H6" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>100854</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>823</v>
@@ -785,21 +914,36 @@
         <v>412</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G7">
         <v>489</v>
       </c>
-      <c r="H7" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>100855</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>828</v>
@@ -811,21 +955,36 @@
         <v>393</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G8">
         <v>388</v>
       </c>
-      <c r="H8" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>100856</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>827</v>
@@ -837,21 +996,36 @@
         <v>466</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G9">
         <v>379</v>
       </c>
-      <c r="H9" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>100857</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>820</v>
@@ -863,21 +1037,36 @@
         <v>399</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G10">
         <v>377</v>
       </c>
-      <c r="H10" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>100858</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>816</v>
@@ -889,30 +1078,45 @@
         <v>669</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G11">
         <v>1231</v>
       </c>
-      <c r="H11" s="2">
-        <v>43486</v>
-      </c>
-      <c r="I11">
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>43486</v>
+      </c>
+      <c r="P11">
         <v>458</v>
       </c>
-      <c r="J11" s="2">
+      <c r="Q11" s="2">
         <v>43488</v>
       </c>
-      <c r="K11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="R11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>100859</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>820</v>
@@ -924,21 +1128,36 @@
         <v>323</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G12">
         <v>470</v>
       </c>
-      <c r="H12" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>100860</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C13">
         <v>823</v>
@@ -950,21 +1169,36 @@
         <v>323</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G13">
         <v>732</v>
       </c>
-      <c r="H13" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>100861</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>821</v>
@@ -976,21 +1210,36 @@
         <v>323</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G14">
         <v>1088</v>
       </c>
-      <c r="H14" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>100862</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C15">
         <v>820</v>
@@ -1002,21 +1251,36 @@
         <v>396</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G15">
         <v>872</v>
       </c>
-      <c r="H15" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>100863</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C16">
         <v>823</v>
@@ -1028,21 +1292,36 @@
         <v>323</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G16">
         <v>516</v>
       </c>
-      <c r="H16" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>100864</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C17">
         <v>820</v>
@@ -1054,21 +1333,36 @@
         <v>396</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G17">
         <v>384</v>
       </c>
-      <c r="H17" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>100865</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <v>819</v>
@@ -1080,21 +1374,36 @@
         <v>323</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G18">
         <v>1072</v>
       </c>
-      <c r="H18" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>100866</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C19">
         <v>823</v>
@@ -1106,21 +1415,36 @@
         <v>363</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G19">
         <v>450</v>
       </c>
-      <c r="H19" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>100867</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <v>823</v>
@@ -1132,21 +1456,36 @@
         <v>407</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G20">
         <v>516</v>
       </c>
-      <c r="H20" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>100868</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C21">
         <v>820</v>
@@ -1158,21 +1497,36 @@
         <v>460</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G21">
         <v>697</v>
       </c>
-      <c r="H21" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>100869</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C22">
         <v>840</v>
@@ -1184,308 +1538,473 @@
         <v>323</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G22">
         <v>711</v>
       </c>
-      <c r="H22" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23">
-        <v>100870</v>
+        <v>100869</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C23">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="D23">
         <v>438</v>
       </c>
       <c r="E23">
+        <v>562</v>
+      </c>
+      <c r="F23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23">
+        <v>711</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24">
+        <v>100870</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>835</v>
+      </c>
+      <c r="D24">
+        <v>438</v>
+      </c>
+      <c r="E24">
         <v>323</v>
       </c>
-      <c r="F23" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23">
+      <c r="F24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24">
         <v>697</v>
       </c>
-      <c r="H23" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24">
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25">
         <v>100871</v>
       </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24">
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25">
         <v>823</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>3</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <v>362</v>
       </c>
-      <c r="F24" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24">
+      <c r="F25" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25">
         <v>516</v>
       </c>
-      <c r="H24" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25">
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26">
         <v>100872</v>
       </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25">
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26">
         <v>820</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <v>422</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <v>460</v>
       </c>
-      <c r="F25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25">
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26">
         <v>470</v>
       </c>
-      <c r="H25" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26">
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27">
         <v>100873</v>
       </c>
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26">
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27">
         <v>817</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <v>673</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <v>323</v>
       </c>
-      <c r="F26" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26">
+      <c r="F27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27">
         <v>1231</v>
       </c>
-      <c r="H26" s="2">
-        <v>43486</v>
-      </c>
-      <c r="I26">
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2">
+        <v>43486</v>
+      </c>
+      <c r="P27">
         <v>458</v>
       </c>
-      <c r="J26" s="2">
+      <c r="Q27" s="2">
         <v>43490</v>
       </c>
-      <c r="K26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27">
+      <c r="R27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28">
+        <v>100873</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28">
+        <v>817</v>
+      </c>
+      <c r="D28">
+        <v>673</v>
+      </c>
+      <c r="E28">
+        <v>571</v>
+      </c>
+      <c r="F28" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28">
+        <v>1231</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2">
+        <v>43486</v>
+      </c>
+      <c r="P28">
+        <v>458</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>43490</v>
+      </c>
+      <c r="R28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29">
         <v>100874</v>
       </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27">
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29">
         <v>821</v>
       </c>
-      <c r="D27">
+      <c r="D29">
         <v>867</v>
       </c>
-      <c r="E27">
+      <c r="E29">
         <v>689</v>
       </c>
-      <c r="F27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27">
+      <c r="F29" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29">
         <v>1179</v>
       </c>
-      <c r="H27" s="2">
-        <v>43486</v>
-      </c>
-      <c r="I27">
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2">
+        <v>43486</v>
+      </c>
+      <c r="P29">
         <v>503</v>
       </c>
-      <c r="J27" s="2">
+      <c r="Q29" s="2">
         <v>43489</v>
       </c>
-      <c r="K27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28">
+      <c r="R29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30">
         <v>100875</v>
       </c>
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28">
-        <v>823</v>
-      </c>
-      <c r="D28">
-        <v>1221</v>
-      </c>
-      <c r="E28">
-        <v>397</v>
-      </c>
-      <c r="F28" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28">
-        <v>387</v>
-      </c>
-      <c r="H28" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29">
-        <v>100876</v>
-      </c>
-      <c r="B29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29">
-        <v>820</v>
-      </c>
-      <c r="D29">
-        <v>349</v>
-      </c>
-      <c r="E29">
-        <v>323</v>
-      </c>
-      <c r="F29" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29">
-        <v>516</v>
-      </c>
-      <c r="H29" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30">
-        <v>100877</v>
-      </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C30">
         <v>823</v>
       </c>
       <c r="D30">
+        <v>1221</v>
+      </c>
+      <c r="E30">
+        <v>397</v>
+      </c>
+      <c r="F30" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30">
+        <v>387</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31">
+        <v>100876</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31">
+        <v>820</v>
+      </c>
+      <c r="D31">
+        <v>349</v>
+      </c>
+      <c r="E31">
+        <v>323</v>
+      </c>
+      <c r="F31" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31">
+        <v>516</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32">
+        <v>100877</v>
+      </c>
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32">
+        <v>823</v>
+      </c>
+      <c r="D32">
         <v>331</v>
-      </c>
-      <c r="E30">
-        <v>323</v>
-      </c>
-      <c r="F30" t="s">
-        <v>45</v>
-      </c>
-      <c r="G30">
-        <v>732</v>
-      </c>
-      <c r="H30" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31">
-        <v>100878</v>
-      </c>
-      <c r="B31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31">
-        <v>821</v>
-      </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-      <c r="E31">
-        <v>391</v>
-      </c>
-      <c r="F31" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31">
-        <v>384</v>
-      </c>
-      <c r="H31" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32">
-        <v>100879</v>
-      </c>
-      <c r="B32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32">
-        <v>819</v>
-      </c>
-      <c r="D32">
-        <v>672</v>
       </c>
       <c r="E32">
         <v>323</v>
       </c>
       <c r="F32" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G32">
-        <v>647</v>
-      </c>
-      <c r="H32" s="2">
-        <v>43486</v>
-      </c>
-      <c r="I32">
-        <v>456</v>
-      </c>
-      <c r="J32" s="2">
-        <v>43487</v>
-      </c>
-      <c r="K32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>732</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33">
-        <v>100880</v>
+        <v>100878</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C33">
         <v>821</v>
@@ -1494,305 +2013,479 @@
         <v>3</v>
       </c>
       <c r="E33">
+        <v>391</v>
+      </c>
+      <c r="F33" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33">
+        <v>384</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34">
+        <v>100879</v>
+      </c>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34">
+        <v>819</v>
+      </c>
+      <c r="D34">
+        <v>672</v>
+      </c>
+      <c r="E34">
         <v>323</v>
       </c>
-      <c r="F33" t="s">
-        <v>48</v>
-      </c>
-      <c r="G33">
-        <v>1088</v>
-      </c>
-      <c r="H33" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34">
-        <v>100881</v>
-      </c>
-      <c r="B34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34">
-        <v>823</v>
-      </c>
-      <c r="D34">
-        <v>1221</v>
-      </c>
-      <c r="E34">
-        <v>11</v>
-      </c>
       <c r="F34" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G34">
-        <v>388</v>
-      </c>
-      <c r="H34" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>647</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34" s="2">
+        <v>43486</v>
+      </c>
+      <c r="P34">
+        <v>456</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>43487</v>
+      </c>
+      <c r="R34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35">
-        <v>100882</v>
+        <v>100880</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C35">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D35">
         <v>3</v>
       </c>
       <c r="E35">
+        <v>323</v>
+      </c>
+      <c r="F35" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35">
+        <v>1088</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36">
+        <v>100881</v>
+      </c>
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36">
+        <v>823</v>
+      </c>
+      <c r="D36">
+        <v>1221</v>
+      </c>
+      <c r="E36">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
+        <v>58</v>
+      </c>
+      <c r="G36">
+        <v>388</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37">
+        <v>100882</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37">
+        <v>823</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
         <v>460</v>
       </c>
-      <c r="F35" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35">
+      <c r="F37" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37">
         <v>387</v>
       </c>
-      <c r="H35" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36">
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38">
         <v>100883</v>
       </c>
-      <c r="B36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36">
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38">
         <v>820</v>
       </c>
-      <c r="D36">
+      <c r="D38">
         <v>820</v>
       </c>
-      <c r="E36">
+      <c r="E38">
         <v>802</v>
       </c>
-      <c r="F36" t="s">
-        <v>50</v>
-      </c>
-      <c r="G36">
+      <c r="F38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G38">
         <v>824</v>
       </c>
-      <c r="H36" s="2">
-        <v>43486</v>
-      </c>
-      <c r="I36">
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38" s="2">
+        <v>43486</v>
+      </c>
+      <c r="P38">
         <v>498</v>
       </c>
-      <c r="J36" s="2">
+      <c r="Q38" s="2">
         <v>43503</v>
       </c>
-      <c r="K36" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37">
+      <c r="R38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39">
         <v>100884</v>
       </c>
-      <c r="B37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37">
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39">
         <v>821</v>
       </c>
-      <c r="D37">
+      <c r="D39">
         <v>349</v>
       </c>
-      <c r="E37">
+      <c r="E39">
         <v>391</v>
       </c>
-      <c r="F37" t="s">
-        <v>46</v>
-      </c>
-      <c r="G37">
+      <c r="F39" t="s">
+        <v>55</v>
+      </c>
+      <c r="G39">
         <v>384</v>
       </c>
-      <c r="H37" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38">
-        <v>100885</v>
-      </c>
-      <c r="B38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38">
-        <v>371</v>
-      </c>
-      <c r="D38">
-        <v>336</v>
-      </c>
-      <c r="E38">
-        <v>323</v>
-      </c>
-      <c r="F38" t="s">
-        <v>51</v>
-      </c>
-      <c r="G38">
-        <v>494</v>
-      </c>
-      <c r="H38" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39">
-        <v>100886</v>
-      </c>
-      <c r="B39" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39">
-        <v>848</v>
-      </c>
-      <c r="D39">
-        <v>813</v>
-      </c>
-      <c r="E39">
-        <v>802</v>
-      </c>
-      <c r="F39" t="s">
-        <v>50</v>
-      </c>
-      <c r="G39">
-        <v>836</v>
-      </c>
-      <c r="H39" s="2">
-        <v>43486</v>
-      </c>
-      <c r="I39">
-        <v>498</v>
-      </c>
-      <c r="J39" s="2">
-        <v>43507</v>
-      </c>
-      <c r="K39" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40">
-        <v>100887</v>
+        <v>100884</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C40">
         <v>821</v>
       </c>
       <c r="D40">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="E40">
-        <v>323</v>
+        <v>391</v>
       </c>
       <c r="F40" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G40">
         <v>384</v>
       </c>
-      <c r="H40" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41">
-        <v>100888</v>
+        <v>100885</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C41">
-        <v>827</v>
+        <v>371</v>
       </c>
       <c r="D41">
-        <v>1221</v>
+        <v>336</v>
       </c>
       <c r="E41">
-        <v>360</v>
+        <v>323</v>
       </c>
       <c r="F41" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G41">
-        <v>470</v>
-      </c>
-      <c r="H41" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>494</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42">
-        <v>100889</v>
+        <v>100886</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C42">
+        <v>848</v>
+      </c>
+      <c r="D42">
+        <v>813</v>
+      </c>
+      <c r="E42">
+        <v>802</v>
+      </c>
+      <c r="F42" t="s">
+        <v>59</v>
+      </c>
+      <c r="G42">
+        <v>836</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42" s="2">
+        <v>43486</v>
+      </c>
+      <c r="P42">
+        <v>498</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>43507</v>
+      </c>
+      <c r="R42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43">
+        <v>100887</v>
+      </c>
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43">
         <v>821</v>
-      </c>
-      <c r="D42">
-        <v>349</v>
-      </c>
-      <c r="E42">
-        <v>323</v>
-      </c>
-      <c r="F42" t="s">
-        <v>54</v>
-      </c>
-      <c r="G42">
-        <v>384</v>
-      </c>
-      <c r="H42" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43">
-        <v>100890</v>
-      </c>
-      <c r="B43" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43">
-        <v>823</v>
       </c>
       <c r="D43">
         <v>331</v>
       </c>
       <c r="E43">
-        <v>393</v>
+        <v>323</v>
       </c>
       <c r="F43" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="G43">
         <v>384</v>
       </c>
-      <c r="H43" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44">
-        <v>100891</v>
+        <v>100887</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C44">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="D44">
         <v>331</v>
@@ -1801,151 +2494,241 @@
         <v>323</v>
       </c>
       <c r="F44" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G44">
-        <v>727</v>
-      </c>
-      <c r="H44" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>384</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45">
-        <v>100892</v>
+        <v>100888</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C45">
-        <v>820</v>
+        <v>827</v>
       </c>
       <c r="D45">
-        <v>422</v>
+        <v>1221</v>
       </c>
       <c r="E45">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="G45">
-        <v>527</v>
-      </c>
-      <c r="H45" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>470</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46">
-        <v>100893</v>
+        <v>100889</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C46">
         <v>821</v>
       </c>
       <c r="D46">
-        <v>422</v>
+        <v>349</v>
       </c>
       <c r="E46">
-        <v>396</v>
+        <v>323</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="G46">
         <v>384</v>
       </c>
-      <c r="H46" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47">
-        <v>100894</v>
+        <v>100890</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C47">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="D47">
         <v>331</v>
       </c>
       <c r="E47">
-        <v>323</v>
+        <v>393</v>
       </c>
       <c r="F47" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="G47">
         <v>384</v>
       </c>
-      <c r="H47" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48">
-        <v>100895</v>
+        <v>100891</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C48">
-        <v>371</v>
+        <v>818</v>
       </c>
       <c r="D48">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E48">
-        <v>398</v>
+        <v>323</v>
       </c>
       <c r="F48" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G48">
-        <v>494</v>
-      </c>
-      <c r="H48" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>727</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49">
-        <v>100896</v>
+        <v>100892</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C49">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D49">
-        <v>331</v>
+        <v>422</v>
       </c>
       <c r="E49">
-        <v>578</v>
+        <v>362</v>
       </c>
       <c r="F49" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G49">
-        <v>1088</v>
-      </c>
-      <c r="H49" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>527</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50">
-        <v>100897</v>
+        <v>100893</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C50">
         <v>821</v>
@@ -1954,579 +2737,909 @@
         <v>422</v>
       </c>
       <c r="E50">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="F50" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G50">
-        <v>1088</v>
-      </c>
-      <c r="H50" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>384</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51">
-        <v>100898</v>
+        <v>100894</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C51">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D51">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="E51">
-        <v>460</v>
+        <v>323</v>
       </c>
       <c r="F51" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="G51">
-        <v>516</v>
-      </c>
-      <c r="H51" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>384</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52">
-        <v>100899</v>
+        <v>100895</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C52">
-        <v>820</v>
+        <v>371</v>
       </c>
       <c r="D52">
-        <v>867</v>
+        <v>336</v>
       </c>
       <c r="E52">
-        <v>689</v>
+        <v>398</v>
       </c>
       <c r="F52" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="G52">
-        <v>1179</v>
-      </c>
-      <c r="H52" s="2">
-        <v>43486</v>
-      </c>
-      <c r="I52">
-        <v>503</v>
-      </c>
-      <c r="J52" s="2">
-        <v>43489</v>
-      </c>
-      <c r="K52" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>494</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53">
-        <v>100900</v>
+        <v>100896</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C53">
         <v>821</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>331</v>
       </c>
       <c r="E53">
-        <v>1078</v>
+        <v>578</v>
       </c>
       <c r="F53" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G53">
-        <v>384</v>
-      </c>
-      <c r="H53" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>1088</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54">
-        <v>100901</v>
+        <v>100896</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C54">
         <v>821</v>
       </c>
       <c r="D54">
+        <v>331</v>
+      </c>
+      <c r="E54">
+        <v>323</v>
+      </c>
+      <c r="F54" t="s">
+        <v>69</v>
+      </c>
+      <c r="G54">
+        <v>1088</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="A55">
+        <v>100897</v>
+      </c>
+      <c r="B55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55">
+        <v>821</v>
+      </c>
+      <c r="D55">
+        <v>422</v>
+      </c>
+      <c r="E55">
+        <v>391</v>
+      </c>
+      <c r="F55" t="s">
+        <v>55</v>
+      </c>
+      <c r="G55">
+        <v>1088</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="A56">
+        <v>100898</v>
+      </c>
+      <c r="B56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56">
+        <v>823</v>
+      </c>
+      <c r="D56">
+        <v>349</v>
+      </c>
+      <c r="E56">
+        <v>460</v>
+      </c>
+      <c r="F56" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56">
+        <v>516</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="A57">
+        <v>100899</v>
+      </c>
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57">
+        <v>820</v>
+      </c>
+      <c r="D57">
+        <v>867</v>
+      </c>
+      <c r="E57">
+        <v>689</v>
+      </c>
+      <c r="F57" t="s">
+        <v>51</v>
+      </c>
+      <c r="G57">
+        <v>1179</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57" s="2">
+        <v>43486</v>
+      </c>
+      <c r="P57">
+        <v>503</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>43489</v>
+      </c>
+      <c r="R57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="A58">
+        <v>100900</v>
+      </c>
+      <c r="B58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58">
+        <v>821</v>
+      </c>
+      <c r="D58">
         <v>3</v>
       </c>
-      <c r="E54">
+      <c r="E58">
+        <v>1078</v>
+      </c>
+      <c r="F58" t="s">
+        <v>70</v>
+      </c>
+      <c r="G58">
+        <v>384</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
+      <c r="A59">
+        <v>100901</v>
+      </c>
+      <c r="B59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59">
+        <v>821</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59">
         <v>396</v>
       </c>
-      <c r="F54" t="s">
-        <v>33</v>
-      </c>
-      <c r="G54">
-        <v>384</v>
-      </c>
-      <c r="H54" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55">
-        <v>100902</v>
-      </c>
-      <c r="B55" t="s">
-        <v>17</v>
-      </c>
-      <c r="C55">
-        <v>820</v>
-      </c>
-      <c r="D55">
-        <v>336</v>
-      </c>
-      <c r="E55">
-        <v>323</v>
-      </c>
-      <c r="F55" t="s">
-        <v>60</v>
-      </c>
-      <c r="G55">
-        <v>527</v>
-      </c>
-      <c r="H55" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56">
-        <v>100903</v>
-      </c>
-      <c r="B56" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56">
-        <v>820</v>
-      </c>
-      <c r="D56">
-        <v>331</v>
-      </c>
-      <c r="E56">
-        <v>323</v>
-      </c>
-      <c r="F56" t="s">
-        <v>61</v>
-      </c>
-      <c r="G56">
-        <v>384</v>
-      </c>
-      <c r="H56" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57">
-        <v>100904</v>
-      </c>
-      <c r="B57" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57">
-        <v>834</v>
-      </c>
-      <c r="D57">
-        <v>461</v>
-      </c>
-      <c r="E57">
-        <v>690</v>
-      </c>
-      <c r="F57" t="s">
-        <v>62</v>
-      </c>
-      <c r="G57">
-        <v>501</v>
-      </c>
-      <c r="H57" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58">
-        <v>100905</v>
-      </c>
-      <c r="B58" t="s">
-        <v>13</v>
-      </c>
-      <c r="C58">
-        <v>815</v>
-      </c>
-      <c r="D58">
-        <v>336</v>
-      </c>
-      <c r="E58">
-        <v>562</v>
-      </c>
-      <c r="F58" t="s">
-        <v>63</v>
-      </c>
-      <c r="G58">
-        <v>355</v>
-      </c>
-      <c r="H58" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59">
-        <v>100906</v>
-      </c>
-      <c r="B59" t="s">
-        <v>13</v>
-      </c>
-      <c r="C59">
-        <v>815</v>
-      </c>
-      <c r="D59">
-        <v>352</v>
-      </c>
-      <c r="E59">
-        <v>363</v>
-      </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G59">
         <v>384</v>
       </c>
-      <c r="H59" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60">
-        <v>100907</v>
+        <v>100902</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C60">
         <v>820</v>
       </c>
       <c r="D60">
-        <v>422</v>
+        <v>336</v>
       </c>
       <c r="E60">
-        <v>397</v>
+        <v>323</v>
       </c>
       <c r="F60" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="G60">
-        <v>377</v>
-      </c>
-      <c r="H60" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+        <v>527</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61">
-        <v>100908</v>
+        <v>100903</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C61">
         <v>820</v>
       </c>
       <c r="D61">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="E61">
-        <v>391</v>
+        <v>323</v>
       </c>
       <c r="F61" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="G61">
-        <v>377</v>
-      </c>
-      <c r="H61" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+        <v>384</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62">
-        <v>100910</v>
+        <v>100904</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C62">
-        <v>823</v>
+        <v>834</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>461</v>
       </c>
       <c r="E62">
-        <v>1096</v>
+        <v>690</v>
       </c>
       <c r="F62" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G62">
-        <v>516</v>
-      </c>
-      <c r="H62" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+        <v>501</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63">
-        <v>100911</v>
+        <v>100905</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C63">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="D63">
         <v>336</v>
       </c>
       <c r="E63">
-        <v>392</v>
+        <v>562</v>
       </c>
       <c r="F63" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="G63">
-        <v>1072</v>
-      </c>
-      <c r="H63" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+        <v>355</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64">
-        <v>100912</v>
+        <v>100905</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C64">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="D64">
-        <v>1221</v>
+        <v>336</v>
       </c>
       <c r="E64">
-        <v>323</v>
+        <v>562</v>
       </c>
       <c r="F64" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="G64">
-        <v>874</v>
-      </c>
-      <c r="H64" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>355</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65">
-        <v>100913</v>
+        <v>100906</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C65">
+        <v>815</v>
+      </c>
+      <c r="D65">
+        <v>352</v>
+      </c>
+      <c r="E65">
+        <v>363</v>
+      </c>
+      <c r="F65" t="s">
+        <v>43</v>
+      </c>
+      <c r="G65">
+        <v>384</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66">
+        <v>100907</v>
+      </c>
+      <c r="B66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66">
         <v>820</v>
       </c>
-      <c r="D65">
-        <v>3</v>
-      </c>
-      <c r="E65">
-        <v>396</v>
-      </c>
-      <c r="F65" t="s">
-        <v>33</v>
-      </c>
-      <c r="G65">
-        <v>450</v>
-      </c>
-      <c r="H65" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66">
-        <v>100914</v>
-      </c>
-      <c r="B66" t="s">
-        <v>21</v>
-      </c>
-      <c r="C66">
-        <v>822</v>
-      </c>
       <c r="D66">
-        <v>1220</v>
+        <v>422</v>
       </c>
       <c r="E66">
-        <v>323</v>
+        <v>397</v>
       </c>
       <c r="F66" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="G66">
-        <v>1086</v>
-      </c>
-      <c r="H66" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>377</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67">
-        <v>100915</v>
+        <v>100908</v>
       </c>
       <c r="B67" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C67">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="D67">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E67">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F67" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G67">
-        <v>453</v>
-      </c>
-      <c r="H67" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>377</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68">
-        <v>100916</v>
+        <v>100910</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C68">
         <v>823</v>
       </c>
       <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>1096</v>
+      </c>
+      <c r="F68" t="s">
+        <v>74</v>
+      </c>
+      <c r="G68">
+        <v>516</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69">
+        <v>100911</v>
+      </c>
+      <c r="B69" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69">
+        <v>823</v>
+      </c>
+      <c r="D69">
+        <v>336</v>
+      </c>
+      <c r="E69">
+        <v>392</v>
+      </c>
+      <c r="F69" t="s">
+        <v>75</v>
+      </c>
+      <c r="G69">
+        <v>1072</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70">
+        <v>100912</v>
+      </c>
+      <c r="B70" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70">
+        <v>818</v>
+      </c>
+      <c r="D70">
         <v>1221</v>
       </c>
-      <c r="E68">
-        <v>397</v>
-      </c>
-      <c r="F68" t="s">
-        <v>43</v>
-      </c>
-      <c r="G68">
-        <v>388</v>
-      </c>
-      <c r="H68" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69">
-        <v>100917</v>
-      </c>
-      <c r="B69" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69">
-        <v>820</v>
-      </c>
-      <c r="D69">
-        <v>422</v>
-      </c>
-      <c r="E69">
+      <c r="E70">
         <v>323</v>
       </c>
-      <c r="F69" t="s">
-        <v>68</v>
-      </c>
-      <c r="G69">
-        <v>527</v>
-      </c>
-      <c r="H69" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70">
-        <v>100918</v>
-      </c>
-      <c r="B70" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70">
-        <v>821</v>
-      </c>
-      <c r="D70">
-        <v>416</v>
-      </c>
-      <c r="E70">
-        <v>361</v>
-      </c>
       <c r="F70" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G70">
-        <v>1210</v>
-      </c>
-      <c r="H70" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>874</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71">
-        <v>100919</v>
+        <v>100913</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C71">
         <v>820</v>
       </c>
       <c r="D71">
-        <v>416</v>
+        <v>3</v>
       </c>
       <c r="E71">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="F71" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="G71">
-        <v>697</v>
-      </c>
-      <c r="H71" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>450</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72">
-        <v>100920</v>
+        <v>100914</v>
       </c>
       <c r="B72" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C72">
         <v>822</v>
@@ -2538,12 +3651,314 @@
         <v>323</v>
       </c>
       <c r="F72" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G72">
         <v>1086</v>
       </c>
-      <c r="H72" s="2">
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73">
+        <v>100915</v>
+      </c>
+      <c r="B73" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73">
+        <v>828</v>
+      </c>
+      <c r="D73">
+        <v>354</v>
+      </c>
+      <c r="E73">
+        <v>393</v>
+      </c>
+      <c r="F73" t="s">
+        <v>34</v>
+      </c>
+      <c r="G73">
+        <v>453</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74">
+        <v>100916</v>
+      </c>
+      <c r="B74" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74">
+        <v>823</v>
+      </c>
+      <c r="D74">
+        <v>1221</v>
+      </c>
+      <c r="E74">
+        <v>397</v>
+      </c>
+      <c r="F74" t="s">
+        <v>52</v>
+      </c>
+      <c r="G74">
+        <v>388</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75">
+        <v>100917</v>
+      </c>
+      <c r="B75" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75">
+        <v>820</v>
+      </c>
+      <c r="D75">
+        <v>422</v>
+      </c>
+      <c r="E75">
+        <v>323</v>
+      </c>
+      <c r="F75" t="s">
+        <v>78</v>
+      </c>
+      <c r="G75">
+        <v>527</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76">
+        <v>100918</v>
+      </c>
+      <c r="B76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76">
+        <v>821</v>
+      </c>
+      <c r="D76">
+        <v>416</v>
+      </c>
+      <c r="E76">
+        <v>361</v>
+      </c>
+      <c r="F76" t="s">
+        <v>79</v>
+      </c>
+      <c r="G76">
+        <v>1210</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77">
+        <v>100919</v>
+      </c>
+      <c r="B77" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77">
+        <v>820</v>
+      </c>
+      <c r="D77">
+        <v>416</v>
+      </c>
+      <c r="E77">
+        <v>361</v>
+      </c>
+      <c r="F77" t="s">
+        <v>79</v>
+      </c>
+      <c r="G77">
+        <v>697</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78">
+        <v>100920</v>
+      </c>
+      <c r="B78" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78">
+        <v>822</v>
+      </c>
+      <c r="D78">
+        <v>1220</v>
+      </c>
+      <c r="E78">
+        <v>323</v>
+      </c>
+      <c r="F78" t="s">
+        <v>80</v>
+      </c>
+      <c r="G78">
+        <v>1086</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78" s="2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79">
+        <v>100920</v>
+      </c>
+      <c r="B79" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79">
+        <v>822</v>
+      </c>
+      <c r="D79">
+        <v>1220</v>
+      </c>
+      <c r="E79">
+        <v>323</v>
+      </c>
+      <c r="F79" t="s">
+        <v>81</v>
+      </c>
+      <c r="G79">
+        <v>1086</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79" s="2">
         <v>43486</v>
       </c>
     </row>

--- a/examples/sources/data/unsolved/to_schedule/2019-01-21.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-01-21.xlsx
@@ -2380,7 +2380,7 @@
         <v>1</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41" s="2">
         <v>43486</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52">
         <v>1</v>
